--- a/06 - TC&C - Prática/06 - TC&C.xlsx
+++ b/06 - TC&C - Prática/06 - TC&C.xlsx
@@ -117,11 +117,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>-200025</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>-161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6324600" cy="5648325"/>
+    <xdr:ext cx="5143500" cy="5257800"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="Imagem"/>
